--- a/CashFlow/PHM_cashflow.xlsx
+++ b/CashFlow/PHM_cashflow.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>31305000000.0</v>
+        <v>-51595000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>31187000000.0</v>
+        <v>2988000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>23334442000.0</v>
+        <v>273695000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>15664779000.0</v>
+        <v>263545000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7911124000.0</v>
+        <v>-167240000.0</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>-237741000.0</v>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1553000000.0</v>
+        <v>227207000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1578000000.0</v>
+        <v>201649000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1125441000.0</v>
+        <v>-14488000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>821855000.0</v>
+        <v>10986000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>567580000.0</v>
+        <v>110670000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>140984000.0</v>
